--- a/data/trans_camb/P42-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P42-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,4</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 17,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 21,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,77; 21,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 17,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 21,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,77; 21,63</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 26,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 33,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 32,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 26,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 33,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 32,94</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,94</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,43; 16,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 12,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 10,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,43; 16,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 12,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 10,11</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,56; 23,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 16,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 14,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,56; 23,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 16,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 14,13</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,79</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,31; 10,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 14,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 9,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,31; 10,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 14,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 9,55</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,07; 13,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,97; 18,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 12,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,07; 13,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,97; 18,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 12,6</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,0</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 10,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 7,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,07; 7,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 10,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 7,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,07; 7,33</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,82%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 12,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 9,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,56; 8,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 12,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 9,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,56; 8,84</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 11,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,48; 11,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 5,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 11,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,48; 11,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 5,62</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 14,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,68; 15,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 7,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 14,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,68; 15,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 7,18</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 5,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 5,15</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 6,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>6,53</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 17,91</t>
+          <t>6,79; 14,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 21,82</t>
+          <t>3,65; 12,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 21,63</t>
+          <t>2,03; 11,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 17,91</t>
+          <t>6,79; 14,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 21,82</t>
+          <t>3,65; 12,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 21,63</t>
+          <t>2,03; 11,12</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>8,75%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 26,93</t>
+          <t>8,83; 20,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 33,28</t>
+          <t>4,8; 17,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 32,94</t>
+          <t>2,63; 15,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 26,93</t>
+          <t>8,83; 20,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 33,28</t>
+          <t>4,8; 17,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 32,94</t>
+          <t>2,63; 15,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>6,5</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 16,74</t>
+          <t>3,31; 10,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,21</t>
+          <t>7,19; 14,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,11</t>
+          <t>2,49; 10,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 16,74</t>
+          <t>3,31; 10,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,21</t>
+          <t>7,19; 14,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,11</t>
+          <t>2,49; 10,24</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,56; 23,17</t>
+          <t>4,07; 13,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 16,82</t>
+          <t>8,97; 18,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 14,13</t>
+          <t>3,13; 13,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,56; 23,17</t>
+          <t>4,07; 13,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 16,82</t>
+          <t>8,97; 18,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 14,13</t>
+          <t>3,13; 13,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-18,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-18,69</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,37</t>
+          <t>3,45; 10,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,06</t>
+          <t>-0,03; 7,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,55</t>
+          <t>-58,5; 8,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,37</t>
+          <t>3,45; 10,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,06</t>
+          <t>-0,03; 7,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,55</t>
+          <t>-58,5; 8,04</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>-22,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>-22,45%</t>
         </is>
       </c>
     </row>
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,65</t>
+          <t>4,01; 12,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,68</t>
+          <t>0,01; 9,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 12,6</t>
+          <t>-70,56; 9,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,65</t>
+          <t>4,01; 12,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,68</t>
+          <t>0,01; 9,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 12,6</t>
+          <t>-70,56; 9,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>3,46</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,19</t>
+          <t>4,63; 11,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 7,43</t>
+          <t>5,48; 11,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 7,33</t>
+          <t>-0,46; 8,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,19</t>
+          <t>4,63; 11,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 7,43</t>
+          <t>5,48; 11,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 7,33</t>
+          <t>-0,46; 8,52</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -1454,39 +1454,39 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,01; 12,66</t>
+          <t>5,6; 14,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,29</t>
+          <t>6,68; 15,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 8,84</t>
+          <t>-0,56; 10,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,01; 12,66</t>
+          <t>5,6; 14,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,29</t>
+          <t>6,68; 15,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 8,84</t>
+          <t>-0,56; 10,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,15</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,99</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,62</t>
+          <t>-20,77; 6,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,15</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,99</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,62</t>
+          <t>-20,77; 6,2</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>-0,71%</t>
         </is>
       </c>
     </row>
@@ -1670,260 +1670,44 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,19</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,37</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 7,18</t>
+          <t>-26,04; 7,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,19</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,37</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 7,18</t>
+          <t>-26,04; 7,84</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 9,88</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 9,9</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 5,15</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 9,88</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 9,9</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 5,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>10,18%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>10,21%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>10,18%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>10,21%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>7,86; 12,61</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 12,67</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 6,55</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>7,86; 12,61</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 12,67</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 6,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P42-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42-Habitat-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,78</t>
+          <t>6,9; 15,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,6</t>
+          <t>3,46; 12,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,12</t>
+          <t>2,09; 11,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,78</t>
+          <t>6,9; 15,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,6</t>
+          <t>3,46; 12,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,12</t>
+          <t>2,09; 11,24</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 20,49</t>
+          <t>9,0; 21,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 17,66</t>
+          <t>4,48; 16,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,14</t>
+          <t>2,7; 15,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 20,49</t>
+          <t>9,0; 21,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 17,66</t>
+          <t>4,48; 16,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,14</t>
+          <t>2,7; 15,53</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,37</t>
+          <t>3,29; 10,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,06</t>
+          <t>6,85; 13,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,24</t>
+          <t>2,23; 10,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,37</t>
+          <t>3,29; 10,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,06</t>
+          <t>6,85; 13,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,24</t>
+          <t>2,23; 10,3</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,65</t>
+          <t>4,14; 13,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,68</t>
+          <t>8,55; 17,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,54</t>
+          <t>2,81; 13,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,65</t>
+          <t>4,14; 13,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,68</t>
+          <t>8,55; 17,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,54</t>
+          <t>2,81; 13,48</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,19</t>
+          <t>3,36; 10,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 7,43</t>
+          <t>-0,19; 7,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,5; 8,04</t>
+          <t>-55,59; 7,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,19</t>
+          <t>3,36; 10,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 7,43</t>
+          <t>-0,19; 7,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-58,5; 8,04</t>
+          <t>-55,59; 7,67</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 12,66</t>
+          <t>3,92; 12,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,29</t>
+          <t>-0,26; 9,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,56; 9,75</t>
+          <t>-66,86; 9,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 12,66</t>
+          <t>3,92; 12,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,29</t>
+          <t>-0,26; 9,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,56; 9,75</t>
+          <t>-66,86; 9,32</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,15</t>
+          <t>4,67; 11,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,99</t>
+          <t>5,7; 12,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,52</t>
+          <t>-0,6; 7,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,15</t>
+          <t>4,67; 11,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,99</t>
+          <t>5,7; 12,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,52</t>
+          <t>-0,6; 7,94</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,19</t>
+          <t>5,62; 14,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,37</t>
+          <t>6,89; 15,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 10,9</t>
+          <t>-0,77; 10,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,19</t>
+          <t>5,62; 14,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,37</t>
+          <t>6,89; 15,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 10,9</t>
+          <t>-0,77; 10,07</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>6,43; 9,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>6,4; 9,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 6,2</t>
+          <t>-19,42; 6,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>6,43; 9,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>6,4; 9,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 6,2</t>
+          <t>-19,42; 6,21</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,61</t>
+          <t>8,02; 12,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,67</t>
+          <t>8,01; 12,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 7,84</t>
+          <t>-24,65; 7,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,61</t>
+          <t>8,02; 12,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,67</t>
+          <t>8,01; 12,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 7,84</t>
+          <t>-24,65; 7,89</t>
         </is>
       </c>
     </row>
